--- a/basellama2fpresponses.xlsx
+++ b/basellama2fpresponses.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6981D233-643B-4E06-B13B-2E16DD330EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE370BC-A135-4F55-8AF2-B619689A0BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A1F11B9-6E78-4218-8665-8192C0958BCC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0A1F11B9-6E78-4218-8665-8192C0958BCC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="llama2_7b_chat" sheetId="1" r:id="rId1"/>
+    <sheet name="mistral_instruct7b_v0.1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="254">
   <si>
     <t>4. Incident Response Plan: Wells Fargo has an incident response plan in place in case of a data breach or other security incident. This plan outlines the steps that should be taken to respond to an incident, including notifying affected parties and reporting to regulatory agencies.</t>
   </si>
@@ -45,9 +46,6 @@
     <t>prompt</t>
   </si>
   <si>
-    <t>response</t>
-  </si>
-  <si>
     <t>s.no.</t>
   </si>
   <si>
@@ -523,6 +521,282 @@
   </si>
   <si>
     <t>It is important to note that Wells Fargo is subject to various privacy and security laws, including HIPAA, which sets strict standards for the handling of protected health information (PHI). The bank must adhere to these laws when collecting, using, or disclosing health information from customers.</t>
+  </si>
+  <si>
+    <t>response llama27b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mistral </t>
+  </si>
+  <si>
+    <t>Wells Fargo takes the secure disposal of health information seriously and follows established procedures to ensure that sensitive data is properly disposed of in a manner that protects customer privacy. Here are some of the ways the bank ensures the secure disposal of health information:</t>
+  </si>
+  <si>
+    <t>1. Secure Storage: Wells Fargo maintains secure storage facilities for health information, both electronically and in paper form. Access to these facilities is restricted to authorized personnel only, and the bank uses encryption and other security measures to protect against unauthorized access or theft.</t>
+  </si>
+  <si>
+    <t>2. Disposal of Paper Records: When paper records containing health information are no longer needed, they are disposed of securely. The bank may use a third-party vendor to shred or incinerate the documents to ensure that they cannot be read or reconstructed.</t>
+  </si>
+  <si>
+    <t>3. Disposal of Electronic Records: Wells Fargo follows established procedures for disposing of electronic records containing health information. This may include degaussing or destroying hard drives, erasing data from storage media, or using specialized software to overwrite the data and make it unrecoverable.</t>
+  </si>
+  <si>
+    <t>4. Vendor Management: The bank carefully manages its relationships with third-party vendors that handle health information on its behalf. Wells Fargo requires these vendors to adhere to strict security standards and to follow established procedures for disposing of health information when it is no longer needed.</t>
+  </si>
+  <si>
+    <t>5. Employee Training: Wells Fargo provides regular training to its employees on the importance of securely disposing of health information and the consequences of failing to do so. The bank also has policies in place to address any incidents of unauthorized disclosure or mishandling of health information.</t>
+  </si>
+  <si>
+    <t>6. Compliance with Regulations: The bank complies with applicable laws and regulations related to the secure disposal of health information, including the Health Insurance Portability and Accountability Act (HIPAA) and state privacy laws. Wells Fargo also follows established procedures for disposing of other types of sensitive information, such as Social Security numbers or financial data.</t>
+  </si>
+  <si>
+    <t>7. Incident Response: In the event that health information is inadvertently disclosed or mishandled, Wells Fargo has established incident response procedures to address the situation and minimize any negative consequences for customers. The bank also reports incidents to regulatory agencies as required by law.</t>
+  </si>
+  <si>
+    <t>8. Regular Audits: Wells Fargo undergoes regular audits of its information security practices, including those related to the handling and disposal of health information. These audits help ensure that the bank's policies and procedures are effective and up-to-date with evolving threats and regulations.</t>
+  </si>
+  <si>
+    <t>Protected classes refer to categories of individuals who are protected from discrimination based on certain characteristics under various federal and state laws, including the Americans with Disabilities Act (ADA), the Age Discrimination in Employment Act (ADEA), and the Fair Housing Act. Wells Fargo, like other financial institutions, may collect information related to these protected classes as part of its business operations. Here are some of the characteristics that fall under the category of protected classes:</t>
+  </si>
+  <si>
+    <t>1. Race: This includes information about an individual's race or ethnicity.</t>
+  </si>
+  <si>
+    <t>2. Color: This refers to an individual's complexion or skin tone.</t>
+  </si>
+  <si>
+    <t>3. National Origin: This includes an individual's country of birth, ancestry, or language spoken at home.</t>
+  </si>
+  <si>
+    <t>4. Religion: This includes an individual's religious beliefs or practices.</t>
+  </si>
+  <si>
+    <t>5. Sex: This includes information about an individual's gender, including pregnancy and childbirth.</t>
+  </si>
+  <si>
+    <t>6. Age: This refers to an individual's age, which is protected under the ADEA for employees over 40 years old.</t>
+  </si>
+  <si>
+    <t>7. Disability: This includes any physical or mental impairment that substantially limits one or more major life activities, as well as individuals who have a record of such an impairment or are regarded as having such an impairment.</t>
+  </si>
+  <si>
+    <t>8. Genetic Information: This refers to information about an individual's genetic makeup or family medical history.</t>
+  </si>
+  <si>
+    <t>9. Sexual Orientation: Some states and localities protect individuals from discrimination based on their sexual orientation, which may include information about an individual's sexual preferences or identity.</t>
+  </si>
+  <si>
+    <t>10. Marital Status: This includes information about an individual's marital status, including whether they are married, single, divorced, or widowed.</t>
+  </si>
+  <si>
+    <t>11. Military Status: This refers to an individual's military status, including membership in the National Guard or Reserve components of the armed forces.</t>
+  </si>
+  <si>
+    <t>Wells Fargo collects and maintains information related to these protected classes as necessary for its business operations, such as to comply with applicable laws and regulations, to provide financial products and services, or to ensure equal access to its programs and activities. The bank is committed to protecting the privacy of this information and ensuring that it is used only for legitimate business purposes.</t>
+  </si>
+  <si>
+    <t>Wells Fargo Retail Services, like many financial institutions, may share customer information with its affiliates for various business purposes. Affiliates are companies that are related to Wells Fargo through common ownership or control. Here is a brief overview of the role of affiliates in the sharing of customer personal information by Wells Fargo Retail Services:</t>
+  </si>
+  <si>
+    <t>1. Joint Marketing: Wells Fargo may share customer information with its affiliates for joint marketing purposes, such as offering co-branded products or services or cross-selling financial products. For example, if a customer has a credit card account with Wells Fargo and also has a mortgage with one of Wells Fargo's affiliates, the bank may share information about the customer's creditworthiness or payment history to offer them a home equity loan.</t>
+  </si>
+  <si>
+    <t>2. Service Providers: Wells Fargo may engage its affiliates as service providers to help manage various aspects of its business operations, including data processing, marketing, and customer service. In these cases, the affiliates may have access to customer information in order to perform their contracted services.</t>
+  </si>
+  <si>
+    <t>3. Compliance with Laws and Regulations: Wells Fargo may be required by law or regulation to share customer information with its affiliates for certain purposes, such as to comply with anti-money laundering regulations or to respond to regulatory inquiries.</t>
+  </si>
+  <si>
+    <t>4. Internal Business Purposes: Wells Fargo may share customer information with its affiliates for internal business purposes, such as risk management, fraud prevention, and operational efficiency. For example, the bank may use data analytics to identify patterns of fraudulent activity across its various lines of business and share that information with its affiliates to help prevent future instances of fraud.</t>
+  </si>
+  <si>
+    <t>5. Consistent Privacy Practices: Wells Fargo aims to maintain consistent privacy practices across its affiliated entities. This means that customers can expect similar levels of protection for their personal information when it is shared within the Wells Fargo family.</t>
+  </si>
+  <si>
+    <t>It's important to note that Wells Fargo Retail Services, like other financial institutions, has strictures in place to limit the sharing of customer information without consent or as required by law. Additionally, affiliates who receive customer information must maintain the same level of privacy protection as Wells Fargo itself. This ensures that customers' personal information remains secure and protected from unauthorized access or use.</t>
+  </si>
+  <si>
+    <t>Customers have certain rights regarding their personal information under various state laws, including those related to financial privacy and data protection. Here are some of the key rights that customers may have when it comes to their personal information with Wells Fargo Retail Services:</t>
+  </si>
+  <si>
+    <t>1. Right to Know: Customers have the right to know what types of personal information Wells Fargo collects about them, how it is used, and with whom it is shared. This information must be provided in a clear and concise manner, typically through a privacy policy or other disclosure document.</t>
+  </si>
+  <si>
+    <t>2. Right to Access: Customers have the right to access their personal information held by Wells Fargo, including the right to request copies of specific records. This right may be subject to certain limitations, such as fees for excessive requests or the need to verify the customer's identity.</t>
+  </si>
+  <si>
+    <t>3. Right to Correct: Customers have the right to correct any errors or inaccuracies in their personal information held by Wells Fargo. This can typically be done online, by mail, or by contacting the bank's customer service department.</t>
+  </si>
+  <si>
+    <t>4. Right to Opt-Out: Customers may have the right to opt-out of certain types of data sharing by Wells Fargo, such as marketing communications or the sale of their personal information to third parties. This can typically be done through the bank's privacy preferences center or by contacting customer service.</t>
+  </si>
+  <si>
+    <t>5. Right to Delete: Customers may have the right to request that Wells Fargo delete certain types of personal information, such as old account records or information that is no longer necessary for the bank's business purposes. This right may be subject to certain limitations, such as legal or regulatory requirements.</t>
+  </si>
+  <si>
+    <t>6. Right to Data Portability: Some states give customers the right to receive their personal information in a portable format, which can be easily transferred to another service provider. This right is intended to help customers maintain control over their data and make it easier to switch providers if they choose to do so.</t>
+  </si>
+  <si>
+    <t>7. Right to File a Complaint: Customers have the right to file a complaint with Wells Fargo or with state regulatory agencies if they believe that their personal information has been mishandled or used inappropriately. The bank is required to respond to these complaints and take appropriate action to address any issues identified.</t>
+  </si>
+  <si>
+    <t>It's important to note that the specific rights that customers have under state law may vary depending on the jurisdiction and the type of personal information involved. Wells Fargo provides more detailed information about its privacy practices and customer rights in its privacy policy and other disclosure documents, which can be found on its website or by contacting customer service.</t>
+  </si>
+  <si>
+    <t>Nevada residents who wish to be placed on Wells Fargo's internal Do Not Call (DNC) list can follow these steps:</t>
+  </si>
+  <si>
+    <t>1. Call the Wells Fargo DNC hotline: Nevada residents can call the Wells Fargo DNC hotline at 1-800-658-3224 to request that their phone number be added to the bank's internal DNC list. The hotline is available Monday through Friday from 7 a.m. to 9 p.m. Pacific Time.</t>
+  </si>
+  <si>
+    <t>2. Submit a written request: Nevada residents can also submit a written request to be placed on Wells Fargo's DNC list by mailing a letter to the following address:</t>
+  </si>
+  <si>
+    <t>Wells Fargo &amp; Company</t>
+  </si>
+  <si>
+    <t>Attn: Consumer Privacy</t>
+  </si>
+  <si>
+    <t>P.O. Box 640157</t>
+  </si>
+  <si>
+    <t>San Antonio, TX 78264-0157</t>
+  </si>
+  <si>
+    <t>The letter should include the Nevada resident's name, phone number, and signature.</t>
+  </si>
+  <si>
+    <t>3. Register with the National DNC Registry: Nevada residents can also register their phone numbers with the National Do Not Call Registry by calling 1-888-382-1222 or visiting the registry online at donotcall.gov. Wells Fargo is required to honor requests made through the National DNC Registry.</t>
+  </si>
+  <si>
+    <t>4. Submit a request online: Nevada residents can also submit a request online to be placed on Wells Fargo's internal DNC list by visiting the bank's website and following the links to the consumer privacy center. The online form allows customers to submit their phone number, along with any additional contact information they wish to have excluded from Wells Fargo marketing communications.</t>
+  </si>
+  <si>
+    <t>It's important to note that Wells Fargo's internal DNC list applies only to the bank's marketing communications. Nevada residents who wish to limit telemarketing calls from all companies can register their phone numbers with the National Do Not Call Registry, as described above.</t>
+  </si>
+  <si>
+    <t>Wells Fargo utilizes various electronic safeguards to protect the confidentiality, integrity, and availability of health information that it may possess. Here are some of the key electronic safeguards that Wells Fargo uses to protect health information:</t>
+  </si>
+  <si>
+    <t>1. Encryption: Wells Fargo encrypts health information both in transit and at rest to prevent unauthorized access or interception. This means that data is converted into a code that can only be deciphered with the proper encryption key, making it unreadable to anyone who does not have authorized access.</t>
+  </si>
+  <si>
+    <t>2. Firewalls: Wells Fargo uses firewalls to protect its networks from unauthorized access and to prevent malware and other cyber threats from reaching its systems. Firewalls act as a barrier between the bank's internal network and the internet, allowing only authorized traffic to pass through.</t>
+  </si>
+  <si>
+    <t>3. Access controls: Wells Fargo implements strict access controls to ensure that only authorized personnel have access to health information. This includes using strong passwords, multi-factor authentication, and role-based access control to limit access to sensitive data.</t>
+  </si>
+  <si>
+    <t>4. Data loss prevention (DLP) tools: Wells Fargo uses DLP tools to prevent the accidental or unauthorized disclosure of health information. These tools can detect and block attempts to copy, print, or email sensitive data, as well as alerting the bank's security team to potential breaches.</t>
+  </si>
+  <si>
+    <t>5. Regular vulnerability assessments: Wells Fargo conducts regular vulnerability assessments to identify and address any weaknesses in its electronic systems that could be exploited by cybercriminals. These assessments include penetration testing, vulnerability scanning, and social engineering tests to identify potential threats and vulnerabilities.</t>
+  </si>
+  <si>
+    <t>6. Incident response plans: Wells Fargo has incident response plans in place to quickly respond to and contain any security incidents that may involve health information. These plans include procedures for notifying affected individuals, reporting the breach to regulatory authorities, and taking steps to mitigate the damage caused by the breach.</t>
+  </si>
+  <si>
+    <t>7. Training and awareness: Wells Fargo provides regular training and awareness programs to its employees on the importance of protecting health information and the risks associated with cyber threats. This includes providing guidance on best practices for using technology securely, identifying phishing scams and other social engineering attacks, and reporting suspicious activity to the bank's security team.</t>
+  </si>
+  <si>
+    <t>By utilizing these electronic safeguards, Wells Fargo aims to protect the confidentiality, integrity, and availability of health information that it may possess, while also complying with applicable laws and regulations related to the protection of sensitive data.</t>
+  </si>
+  <si>
+    <t>Yes, there are specific guidelines for storing health information at Wells Fargo in order to ensure its confidentiality, integrity, and availability. These guidelines are based on various laws and regulations related to the protection of sensitive data, including the Health Insurance Portability and Accountability Act (HIPAA) and the Gramm-Leach-Bliley Act (GLBA).</t>
+  </si>
+  <si>
+    <t>Here are some of the key guidelines for storing health information at Wells Fargo:</t>
+  </si>
+  <si>
+    <t>1. Physical security: Wells Fargo stores health information in secure facilities that are protected against unauthorized access, both physically and electronically. This includes using access controls, surveillance cameras, and other security measures to prevent unauthorized entry.</t>
+  </si>
+  <si>
+    <t>2. Access controls: Wells Fargo implements strict access controls to ensure that only authorized personnel have access to health information. This includes using strong passwords, multi-factor authentication, and role-based access control to limit access to sensitive data.</t>
+  </si>
+  <si>
+    <t>3. Encryption: Wells Fargo encrypts health information both in transit and at rest to prevent unauthorized access or interception. This means that data is converted into a code that can only be deciphered with the proper encryption key, making it unreadable to anyone who does not have authorized access.</t>
+  </si>
+  <si>
+    <t>4. Backup and disaster recovery: Wells Fargo maintains backup copies of health information in secure offsite locations to ensure its availability in case of a disaster or other event that may affect its primary storage location. The bank also has disaster recovery plans in place to quickly restore access to health information in the event of a breach or other disruption.</t>
+  </si>
+  <si>
+    <t>By following these guidelines for storing health information at Wells Fargo, the bank aims to protect its confidentiality, integrity, and availability while also complying with applicable laws and regulations related to the protection of sensitive data.</t>
+  </si>
+  <si>
+    <t>Biometric information refers to unique physical or behavioral characteristics used for identification and authentication purposes. At Wells Fargo, biometric information may be collected for certain financial products and services that require additional security measures to prevent unauthorized access.</t>
+  </si>
+  <si>
+    <t>Here are some examples of biometric information that Wells Fargo may collect:</t>
+  </si>
+  <si>
+    <t>1. Fingerprints: Wells Fargo offers fingerprint scanning as an option for activating and using certain debit and credit cards, as well as for accessing digital wallets and mobile banking apps.</t>
+  </si>
+  <si>
+    <t>2. Facial recognition: Wells Fargo uses facial recognition technology to verify the identity of customers when they use certain digital banking services, such as online account opening or mobile deposit.</t>
+  </si>
+  <si>
+    <t>3. Voice recognition: Wells Fargo offers voice recognition as an option for accessing certain digital banking services, allowing customers to authenticate their identity by speaking a specific phrase or series of phrases.</t>
+  </si>
+  <si>
+    <t>4. Iris scans: Wells Fargo has experimented with iris scanning technology in the past for use in ATMs and other financial services, although this is not currently offered as a standard feature.</t>
+  </si>
+  <si>
+    <t>5. Signature analysis: While not strictly biometric information, signature analysis is sometimes used by Wells Fargo to verify the authenticity of checks and other documents that require a signature.</t>
+  </si>
+  <si>
+    <t>It's important to note that Wells Fargo only collects and uses biometric information with the consent of its customers and in accordance with applicable laws and regulations related to data privacy and security. The bank also implements appropriate safeguards to protect biometric information from unauthorized access, use, or disclosure.</t>
+  </si>
+  <si>
+    <t>Wells Fargo Retail Services takes the protection of its customers' personal information seriously and implements various measures to ensure that it is kept secure from unauthorized access. Here are some ways that Wells Fargo Retail Services works to protect customer information:</t>
+  </si>
+  <si>
+    <t>1. Physical security: Wells Fargo has physical security measures in place at its branches, ATMs, and other facilities to prevent unauthorized access to customer information. This includes using access controls, surveillance cameras, and other security measures to limit access to sensitive areas.</t>
+  </si>
+  <si>
+    <t>2. Encryption: Wells Fargo encrypts customer data both in transit and at rest to protect it from interception or theft. This means that data is converted into a code that can only be deciphered with the proper encryption key, making it unreadable to anyone who does not have authorized access.</t>
+  </si>
+  <si>
+    <t>3. Access controls: Wells Fargo implements strict access controls to ensure that only authorized personnel have access to customer information. This includes using strong passwords, multi-factor authentication, and role-based access control to limit access to sensitive data.</t>
+  </si>
+  <si>
+    <t>4. Regular vulnerability assessments: Wells Fargo conducts regular vulnerability assessments to identify and address any weaknesses in its electronic systems that could be exploited by cybercriminals. These assessments include penetration testing, vulnerability scanning, and social engineering tests to identify potential threats and vulnerabilities.</t>
+  </si>
+  <si>
+    <t>5. Incident response plans: Wells Fargo has incident response plans in place to quickly respond to and contain any security incidents that may involve customer information. These plans include procedures for notifying affected customers, reporting the breach to regulatory authorities, and taking steps to mitigate the damage caused by the breach.</t>
+  </si>
+  <si>
+    <t>6. Training and awareness: Wells Fargo provides regular training and awareness programs to its employees on the importance of protecting customer information and the risks associated with cyber threats. This includes providing guidance on best practices for using technology securely, identifying phishing scams and other social engineering attacks, and reporting suspicious activity to the bank's security team.</t>
+  </si>
+  <si>
+    <t>7. Compliance with regulations: Wells Fargo complies with relevant data privacy and security regulations, including the Gramm-Leach-Bliley Act (GLBA), the Health Insurance Portability and Accountability Act (HIPAA), and the Payment Card Industry Data Security Standards (PCI DSS). These regulations help ensure that customer information is protected from unauthorized access or use.</t>
+  </si>
+  <si>
+    <t>By implementing these measures, Wells Fargo Retail Services aims to protect its customers' personal information from unauthorized access while also complying with relevant data privacy and security regulations.</t>
+  </si>
+  <si>
+    <t>Wells Fargo may obtain health information in certain circumstances related to the financial products and services it offers. Here are some examples of situations where Wells Fargo might request or collect health information:</t>
+  </si>
+  <si>
+    <t>1. Health Savings Accounts (HSAs) and other healthcare-related products: Wells Fargo offers various financial products designed to help individuals save for healthcare expenses, such as Health Savings Accounts (HSAs), Flexible Spending Accounts (FSAs), and Health Reimbursement Arrangements (HRAs). In order to open and manage these accounts, Wells Fargo may need to collect health information from account holders or their employers. This information is typically used to verify eligibility for the account, determine contribution limits, and process reimbursements for qualified healthcare expenses.</t>
+  </si>
+  <si>
+    <t>2. Disability insurance: Wells Fargo offers disability insurance products that provide financial assistance to individuals who are unable to work due to a disability. In order to underwrite these policies, Wells Fargo may need to collect health information from applicants to assess their risk of becoming disabled and determine the premiums they will pay.</t>
+  </si>
+  <si>
+    <t>3. Life insurance: Wells Fargo offers life insurance products that provide financial protection to beneficiaries in the event of an insured person's death. In order to underwrite these policies, Wells Fargo may need to collect health information from applicants to assess their risk of mortality and determine the premiums they will pay.</t>
+  </si>
+  <si>
+    <t>4. Employee benefits: Wells Fargo offers various employee benefit programs, such as group health insurance, dental insurance, and vision insurance. In order to administer these programs, Wells Fargo may need to collect health information from employees or their dependents to process claims, manage enrollment, and provide customer service.</t>
+  </si>
+  <si>
+    <t>5. Mortgages and home equity loans: In some cases, Wells Fargo may request health information as part of the application process for mortgages or home equity loans. This information may be used to assess an applicant's ability to repay the loan based on their income and expenses, including healthcare-related expenses.</t>
+  </si>
+  <si>
+    <t>6. Other financial products and services: In some cases, Wells Fargo may request health information as part of the application process for other financial products or services, such as personal loans or credit cards. This information may be used to assess an applicant's creditworthiness and ability to repay the loan or debt based on their income and expenses, including healthcare-related expenses.</t>
+  </si>
+  <si>
+    <t>It's important to note that Wells Fargo only collects and uses health information with the consent of its customers and in accordance with applicable laws and regulations related to data privacy and security. The bank also implements appropriate safeguards to protect health information from unauthorized access, use, or disclosure.</t>
   </si>
 </sst>
 </file>
@@ -891,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039B2634-19D8-4565-9858-C13785EC20BC}">
   <dimension ref="A1:E176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I163" sqref="I163"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,13 +1177,13 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -920,22 +1194,22 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -945,32 +1219,32 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -978,131 +1252,131 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E28" s="1" t="s">
+    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E29" s="1" t="s">
+    <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E30" s="1" t="s">
+    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E31" s="1" t="s">
+    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E32" s="1" t="s">
+    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="1" t="s">
+    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="1" t="s">
+    <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="1" t="s">
+    <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="1" t="s">
+    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E37" s="1" t="s">
+    <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E38" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1110,240 +1384,240 @@
         <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="E45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="5:5" ht="75" x14ac:dyDescent="0.25">
       <c r="E49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="5:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="5:5" ht="90" x14ac:dyDescent="0.25">
       <c r="E51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="5:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="5:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E54" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="5:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="5:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E56" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="5:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E57" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="5:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E58" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="5:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E59" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="5:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E60" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="5:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E61" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="5:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E62" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="5:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E63" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="5:5" ht="90" x14ac:dyDescent="0.25">
       <c r="E64" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="5:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E66" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="5:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E67" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="5:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E68" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="5:5" ht="75" x14ac:dyDescent="0.25">
       <c r="E69" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="5:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E70" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="5:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E71" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="5:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E72" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="5:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E73" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="5:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E74" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="5:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E75" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="5:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E76" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="5:5" ht="75" x14ac:dyDescent="0.25">
       <c r="E77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="5:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E79" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="5:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E80" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E81" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E82" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E83" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E84" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E85" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E86" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E87" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E88" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="E89" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1351,248 +1625,248 @@
         <v>5</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="E93" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="E94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="E95" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="E96" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E97" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E98" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="E99" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E101" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>6</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E103" s="1" t="s">
+    </row>
+    <row r="105" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E105" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E105" s="1" t="s">
+    <row r="106" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E106" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="1" t="s">
+    <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E107" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E107" s="1" t="s">
+    <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E108" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E108" s="1" t="s">
+    <row r="109" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E109" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E109" s="1" t="s">
+    <row r="110" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E110" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E110" s="1" t="s">
+    <row r="111" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E111" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E111" s="1" t="s">
+    <row r="112" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E112" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E112" s="1" t="s">
+    <row r="113" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E113" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E113" s="1" t="s">
+    <row r="114" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E114" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E114" s="1" t="s">
+    <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E116" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E116" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>7</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E118" s="1" t="s">
+    </row>
+    <row r="120" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E120" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E120" s="1" t="s">
+    <row r="121" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E121" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E122" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E121" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E122" s="1" t="s">
+    <row r="123" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E123" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E123" s="1" t="s">
+    <row r="124" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E124" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E124" s="1" t="s">
+    <row r="125" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E125" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E125" s="1" t="s">
+    <row r="126" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E126" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E126" s="1" t="s">
+    <row r="127" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E127" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E127" s="1" t="s">
+    <row r="128" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E128" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E128" s="1" t="s">
+    <row r="129" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E129" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E129" s="1" t="s">
+    <row r="131" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E131" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E131" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>8</v>
       </c>
       <c r="C133" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E133" s="1" t="s">
+    </row>
+    <row r="135" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E135" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E135" s="1" t="s">
+    <row r="136" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E136" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E136" s="1" t="s">
+    <row r="137" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E137" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E137" s="1" t="s">
+    <row r="138" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E138" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E138" s="1" t="s">
+    <row r="139" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E139" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E139" s="1" t="s">
+    <row r="140" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E140" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E140" s="1" t="s">
+    <row r="141" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E141" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E141" s="1" t="s">
+    <row r="142" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E142" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E142" s="1" t="s">
+    <row r="143" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E143" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E143" s="1" t="s">
+    <row r="144" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E144" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E144" s="1" t="s">
+    <row r="146" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E146" s="1" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E146" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1600,65 +1874,65 @@
         <v>9</v>
       </c>
       <c r="C148" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E148" s="1" t="s">
+    </row>
+    <row r="150" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E150" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E150" s="1" t="s">
+    <row r="151" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E151" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E151" s="1" t="s">
+    <row r="152" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E152" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E152" s="1" t="s">
+    <row r="153" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E153" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E153" s="1" t="s">
+    <row r="154" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E154" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E154" s="1" t="s">
+    <row r="155" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E155" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E155" s="1" t="s">
+    <row r="156" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E156" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E156" s="1" t="s">
+    <row r="157" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E157" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E157" s="1" t="s">
+    <row r="158" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E158" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E158" s="1" t="s">
+    <row r="159" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="E159" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E159" s="1" t="s">
+    <row r="161" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E161" s="1" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E161" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1666,65 +1940,621 @@
         <v>10</v>
       </c>
       <c r="C163" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E165" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="E166" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E167" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E168" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E169" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E170" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E171" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E172" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E173" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E174" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="E176" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E785D5B9-AF0B-431B-8626-F283CAC2BE6B}">
+  <dimension ref="A1:E126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="67.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E63" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E69" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E70" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E71" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E72" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E73" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E74" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="E75" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E77" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>7</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E81" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E83" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E84" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E85" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E86" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E87" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E88" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E89" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E91" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>8</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E95" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E97" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E98" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E99" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E100" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E101" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E103" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>9</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E107" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E108" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E109" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E110" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E111" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E112" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E113" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E115" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>10</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="E119" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E120" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E121" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E122" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E123" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="E124" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E126" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
